--- a/Excel/AirpositiveUccf.xlsx
+++ b/Excel/AirpositiveUccf.xlsx
@@ -444,10 +444,10 @@
     <t>90909009</t>
   </si>
   <si>
-    <t>9210291221</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>9210291268</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="DC8" sqref="DC8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1264,7 +1264,7 @@
         <v>101</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>101</v>
@@ -1489,7 +1489,7 @@
         <v>141</v>
       </c>
       <c r="CQ2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AirpositiveUccf.xlsx
+++ b/Excel/AirpositiveUccf.xlsx
@@ -447,7 +447,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>9210291290</t>
+    <t>9310291350</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
